--- a/latest_lineup.xlsx
+++ b/latest_lineup.xlsx
@@ -808,6 +808,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -829,6 +830,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -836,21 +838,56 @@
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -880,12 +917,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,8 +930,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -913,7 +974,7 @@
       <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -976,8 +1037,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I87" activeCellId="0" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -986,7 +1047,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1011,79 +1072,86 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1108,79 +1176,86 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1205,102 +1280,106 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="3" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -1313,124 +1392,128 @@
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>79</v>
       </c>
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="6" t="s">
         <v>85</v>
       </c>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -1443,59 +1526,64 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1520,309 +1608,322 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+    <row r="65" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="7" t="s">
         <v>113</v>
       </c>
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="AMI69" s="0"/>
-      <c r="AMJ69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="AMI68" s="0"/>
+      <c r="AMJ68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D69" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+    <row r="70" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D70" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AMI71" s="0"/>
-      <c r="AMJ71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="AMI70" s="0"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B71" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D71" s="3" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="72" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AMI72" s="0"/>
+      <c r="AMJ72" s="0"/>
+    </row>
     <row r="73" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>118</v>
+      <c r="A73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AMI74" s="0"/>
-      <c r="AMJ74" s="0"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B75" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C75" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D75" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+    <row r="76" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C76" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AMI77" s="0"/>
-      <c r="AMJ77" s="0"/>
+      <c r="AMI76" s="0"/>
+      <c r="AMJ76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="AMI78" s="0"/>
+      <c r="AMJ78" s="0"/>
     </row>
     <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
     </row>
-    <row r="80" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="2" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AMI80" s="0"/>
-      <c r="AMJ80" s="0"/>
+      <c r="D80" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>134</v>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="0" t="s">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C83" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D83" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
       <c r="AMI89" s="0"/>
       <c r="AMJ89" s="0"/>
     </row>
@@ -1837,108 +1938,112 @@
       <c r="AMJ90" s="0"/>
     </row>
     <row r="91" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="6" t="s">
         <v>142</v>
       </c>
       <c r="AMI91" s="0"/>
       <c r="AMJ91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="6" t="s">
         <v>134</v>
       </c>
       <c r="AMI94" s="0"/>
       <c r="AMJ94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="6" t="s">
         <v>150</v>
       </c>
       <c r="AMI96" s="0"/>
       <c r="AMJ96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="3" t="s">
         <v>152</v>
       </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4"/>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
@@ -1951,126 +2056,130 @@
       <c r="AMJ99" s="0"/>
     </row>
     <row r="100" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="6" t="s">
         <v>155</v>
       </c>
       <c r="AMI100" s="0"/>
       <c r="AMJ100" s="0"/>
     </row>
     <row r="101" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="6" t="s">
         <v>157</v>
       </c>
       <c r="AMI101" s="0"/>
       <c r="AMJ101" s="0"/>
     </row>
     <row r="102" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="6" t="s">
         <v>160</v>
       </c>
       <c r="AMI102" s="0"/>
       <c r="AMJ102" s="0"/>
     </row>
     <row r="103" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="6" t="s">
         <v>162</v>
       </c>
       <c r="AMI103" s="0"/>
       <c r="AMJ103" s="0"/>
     </row>
     <row r="104" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="6" t="s">
         <v>118</v>
       </c>
       <c r="AMI104" s="0"/>
       <c r="AMJ104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="3" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4"/>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
@@ -2083,59 +2192,64 @@
       <c r="AMJ109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="2" t="s">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="6" t="s">
         <v>160</v>
       </c>
       <c r="AMI111" s="0"/>
       <c r="AMJ111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2160,108 +2274,112 @@
       <c r="AMJ116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="6" t="s">
         <v>142</v>
       </c>
       <c r="AMI119" s="0"/>
       <c r="AMJ119" s="0"/>
     </row>
     <row r="120" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="6" t="s">
         <v>188</v>
       </c>
       <c r="AMI120" s="0"/>
       <c r="AMJ120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+    <row r="122" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="7" t="s">
         <v>191</v>
       </c>
       <c r="AMI122" s="0"/>
       <c r="AMJ122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="3" t="s">
         <v>193</v>
       </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4"/>
+      <c r="D124" s="5"/>
     </row>
     <row r="125" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -2274,122 +2392,126 @@
       <c r="AMJ125" s="0"/>
     </row>
     <row r="126" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="6" t="s">
         <v>197</v>
       </c>
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
     <row r="127" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="6" t="s">
         <v>200</v>
       </c>
       <c r="AMI127" s="0"/>
       <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="129" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="6" t="s">
         <v>162</v>
       </c>
       <c r="AMI129" s="0"/>
       <c r="AMJ129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4"/>
+      <c r="D134" s="5"/>
     </row>
     <row r="135" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
@@ -2402,59 +2524,64 @@
       <c r="AMJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="s">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="0" t="s">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="2" t="s">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AMI138" s="0"/>
       <c r="AMJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="0" t="s">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="s">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2479,110 +2606,114 @@
       <c r="AMJ146" s="0"/>
     </row>
     <row r="147" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="6" t="s">
         <v>97</v>
       </c>
       <c r="AMI147" s="0"/>
       <c r="AMJ147" s="0"/>
     </row>
     <row r="148" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AMI148" s="0"/>
       <c r="AMJ148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+    <row r="152" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="7" t="s">
         <v>162</v>
       </c>
       <c r="AMI152" s="0"/>
       <c r="AMJ152" s="0"/>
     </row>
     <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="6" t="s">
         <v>229</v>
       </c>
       <c r="AMI153" s="0"/>
       <c r="AMJ153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4"/>
+      <c r="D154" s="5"/>
     </row>
     <row r="155" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
@@ -2595,124 +2726,128 @@
       <c r="AMJ155" s="0"/>
     </row>
     <row r="156" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="6" t="s">
         <v>232</v>
       </c>
       <c r="AMI156" s="0"/>
       <c r="AMJ156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="6" t="s">
         <v>237</v>
       </c>
       <c r="AMI158" s="0"/>
       <c r="AMJ158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="6" t="s">
         <v>242</v>
       </c>
       <c r="AMI161" s="0"/>
       <c r="AMJ161" s="0"/>
     </row>
     <row r="162" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="6" t="s">
         <v>244</v>
       </c>
       <c r="AMI162" s="0"/>
       <c r="AMJ162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="3" t="s">
         <v>246</v>
       </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4"/>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
@@ -2725,57 +2860,62 @@
       <c r="AMJ165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="0" t="s">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="0" t="s">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="0" t="s">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="0" t="s">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="0" t="s">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2791,8 +2931,8 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A99:D99"/>
